--- a/data/unchecked/manual_collect/china/fujian/fujianCaseStatistics_20200514.xlsx
+++ b/data/unchecked/manual_collect/china/fujian/fujianCaseStatistics_20200514.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xenosaga\Desktop\ncov\COVID-19\data\unchecked\manual_collect\china\fujian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0C85D7-8869-4493-9DF7-DFBC7E50FFD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537B5DC4-AC90-473E-B270-5333F764E154}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10854,9 +10854,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF3" sqref="AF3:AF91"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3:D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="15" customHeight="1"/>
@@ -11051,10 +11051,10 @@
         <v>40</v>
       </c>
       <c r="C2" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D2" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>41</v>
@@ -11137,10 +11137,10 @@
         <v>46</v>
       </c>
       <c r="C3" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D3" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>41</v>
@@ -11219,10 +11219,10 @@
         <v>48</v>
       </c>
       <c r="C4" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D4" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>41</v>
@@ -11301,10 +11301,10 @@
         <v>48</v>
       </c>
       <c r="C5" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D5" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>41</v>
@@ -11383,10 +11383,10 @@
         <v>48</v>
       </c>
       <c r="C6" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D6" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>41</v>
@@ -11465,10 +11465,10 @@
         <v>48</v>
       </c>
       <c r="C7" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D7" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>41</v>
@@ -11547,10 +11547,10 @@
         <v>48</v>
       </c>
       <c r="C8" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D8" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>41</v>
@@ -11629,10 +11629,10 @@
         <v>48</v>
       </c>
       <c r="C9" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D9" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>41</v>
@@ -11713,10 +11713,10 @@
         <v>46</v>
       </c>
       <c r="C10" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D10" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>41</v>
@@ -11793,10 +11793,10 @@
         <v>48</v>
       </c>
       <c r="C11" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D11" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>41</v>
@@ -11875,10 +11875,10 @@
         <v>48</v>
       </c>
       <c r="C12" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D12" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>41</v>
@@ -11957,10 +11957,10 @@
         <v>48</v>
       </c>
       <c r="C13" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D13" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>41</v>
@@ -12039,10 +12039,10 @@
         <v>48</v>
       </c>
       <c r="C14" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D14" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>41</v>
@@ -12121,10 +12121,10 @@
         <v>48</v>
       </c>
       <c r="C15" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D15" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>41</v>
@@ -12203,10 +12203,10 @@
         <v>48</v>
       </c>
       <c r="C16" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D16" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>41</v>
@@ -12285,10 +12285,10 @@
         <v>48</v>
       </c>
       <c r="C17" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D17" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>41</v>
@@ -12367,10 +12367,10 @@
         <v>48</v>
       </c>
       <c r="C18" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D18" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>41</v>
@@ -12449,10 +12449,10 @@
         <v>46</v>
       </c>
       <c r="C19" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D19" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>41</v>
@@ -12531,10 +12531,10 @@
         <v>48</v>
       </c>
       <c r="C20" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D20" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>41</v>
@@ -12613,10 +12613,10 @@
         <v>48</v>
       </c>
       <c r="C21" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D21" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E21" s="15" t="s">
         <v>41</v>
@@ -12695,10 +12695,10 @@
         <v>48</v>
       </c>
       <c r="C22" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D22" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E22" s="15" t="s">
         <v>41</v>
@@ -12777,10 +12777,10 @@
         <v>48</v>
       </c>
       <c r="C23" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D23" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E23" s="15" t="s">
         <v>41</v>
@@ -12859,10 +12859,10 @@
         <v>48</v>
       </c>
       <c r="C24" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D24" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E24" s="15" t="s">
         <v>41</v>
@@ -12941,10 +12941,10 @@
         <v>48</v>
       </c>
       <c r="C25" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D25" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E25" s="15" t="s">
         <v>41</v>
@@ -13023,10 +13023,10 @@
         <v>48</v>
       </c>
       <c r="C26" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D26" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E26" s="15" t="s">
         <v>41</v>
@@ -13105,10 +13105,10 @@
         <v>48</v>
       </c>
       <c r="C27" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D27" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E27" s="15" t="s">
         <v>41</v>
@@ -13187,10 +13187,10 @@
         <v>48</v>
       </c>
       <c r="C28" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D28" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E28" s="15" t="s">
         <v>41</v>
@@ -13269,10 +13269,10 @@
         <v>48</v>
       </c>
       <c r="C29" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D29" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E29" s="15" t="s">
         <v>41</v>
@@ -13349,10 +13349,10 @@
         <v>46</v>
       </c>
       <c r="C30" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D30" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E30" s="15" t="s">
         <v>41</v>
@@ -13429,10 +13429,10 @@
         <v>48</v>
       </c>
       <c r="C31" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D31" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E31" s="15" t="s">
         <v>41</v>
@@ -13511,10 +13511,10 @@
         <v>48</v>
       </c>
       <c r="C32" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D32" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E32" s="15" t="s">
         <v>41</v>
@@ -13593,10 +13593,10 @@
         <v>48</v>
       </c>
       <c r="C33" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D33" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E33" s="15" t="s">
         <v>41</v>
@@ -13675,10 +13675,10 @@
         <v>48</v>
       </c>
       <c r="C34" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D34" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E34" s="15" t="s">
         <v>41</v>
@@ -13757,10 +13757,10 @@
         <v>48</v>
       </c>
       <c r="C35" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D35" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E35" s="15" t="s">
         <v>41</v>
@@ -13839,10 +13839,10 @@
         <v>48</v>
       </c>
       <c r="C36" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D36" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E36" s="15" t="s">
         <v>41</v>
@@ -13921,10 +13921,10 @@
         <v>48</v>
       </c>
       <c r="C37" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D37" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E37" s="15" t="s">
         <v>41</v>
@@ -14003,10 +14003,10 @@
         <v>48</v>
       </c>
       <c r="C38" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D38" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E38" s="15" t="s">
         <v>41</v>
@@ -14085,10 +14085,10 @@
         <v>48</v>
       </c>
       <c r="C39" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D39" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E39" s="15" t="s">
         <v>41</v>
@@ -14167,10 +14167,10 @@
         <v>48</v>
       </c>
       <c r="C40" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D40" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E40" s="15" t="s">
         <v>41</v>
@@ -14249,10 +14249,10 @@
         <v>46</v>
       </c>
       <c r="C41" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D41" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E41" s="15" t="s">
         <v>41</v>
@@ -14331,10 +14331,10 @@
         <v>48</v>
       </c>
       <c r="C42" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D42" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E42" s="15" t="s">
         <v>41</v>
@@ -14413,10 +14413,10 @@
         <v>48</v>
       </c>
       <c r="C43" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D43" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E43" s="15" t="s">
         <v>41</v>
@@ -14495,10 +14495,10 @@
         <v>48</v>
       </c>
       <c r="C44" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D44" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E44" s="15" t="s">
         <v>41</v>
@@ -14579,10 +14579,10 @@
         <v>48</v>
       </c>
       <c r="C45" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D45" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E45" s="15" t="s">
         <v>41</v>
@@ -14661,10 +14661,10 @@
         <v>48</v>
       </c>
       <c r="C46" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D46" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E46" s="15" t="s">
         <v>41</v>
@@ -14743,10 +14743,10 @@
         <v>48</v>
       </c>
       <c r="C47" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D47" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E47" s="15" t="s">
         <v>41</v>
@@ -14825,10 +14825,10 @@
         <v>48</v>
       </c>
       <c r="C48" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D48" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E48" s="15" t="s">
         <v>41</v>
@@ -14907,10 +14907,10 @@
         <v>48</v>
       </c>
       <c r="C49" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D49" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E49" s="15" t="s">
         <v>41</v>
@@ -14989,10 +14989,10 @@
         <v>48</v>
       </c>
       <c r="C50" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D50" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E50" s="15" t="s">
         <v>41</v>
@@ -15071,10 +15071,10 @@
         <v>48</v>
       </c>
       <c r="C51" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D51" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E51" s="15" t="s">
         <v>41</v>
@@ -15153,10 +15153,10 @@
         <v>48</v>
       </c>
       <c r="C52" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D52" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E52" s="15" t="s">
         <v>41</v>
@@ -15235,10 +15235,10 @@
         <v>46</v>
       </c>
       <c r="C53" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D53" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E53" s="15" t="s">
         <v>41</v>
@@ -15317,10 +15317,10 @@
         <v>48</v>
       </c>
       <c r="C54" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D54" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E54" s="15" t="s">
         <v>41</v>
@@ -15399,10 +15399,10 @@
         <v>48</v>
       </c>
       <c r="C55" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D55" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E55" s="15" t="s">
         <v>41</v>
@@ -15481,10 +15481,10 @@
         <v>48</v>
       </c>
       <c r="C56" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D56" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E56" s="15" t="s">
         <v>41</v>
@@ -15563,10 +15563,10 @@
         <v>48</v>
       </c>
       <c r="C57" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D57" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E57" s="15" t="s">
         <v>41</v>
@@ -15645,10 +15645,10 @@
         <v>48</v>
       </c>
       <c r="C58" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D58" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E58" s="15" t="s">
         <v>41</v>
@@ -15727,10 +15727,10 @@
         <v>48</v>
       </c>
       <c r="C59" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D59" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E59" s="15" t="s">
         <v>41</v>
@@ -15809,10 +15809,10 @@
         <v>46</v>
       </c>
       <c r="C60" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D60" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E60" s="15" t="s">
         <v>41</v>
@@ -15889,10 +15889,10 @@
         <v>48</v>
       </c>
       <c r="C61" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D61" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E61" s="15" t="s">
         <v>41</v>
@@ -15971,10 +15971,10 @@
         <v>48</v>
       </c>
       <c r="C62" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D62" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E62" s="15" t="s">
         <v>41</v>
@@ -16053,10 +16053,10 @@
         <v>48</v>
       </c>
       <c r="C63" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D63" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E63" s="15" t="s">
         <v>41</v>
@@ -16135,10 +16135,10 @@
         <v>48</v>
       </c>
       <c r="C64" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D64" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E64" s="15" t="s">
         <v>41</v>
@@ -16217,10 +16217,10 @@
         <v>48</v>
       </c>
       <c r="C65" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D65" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E65" s="15" t="s">
         <v>41</v>
@@ -16299,10 +16299,10 @@
         <v>48</v>
       </c>
       <c r="C66" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D66" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E66" s="15" t="s">
         <v>41</v>
@@ -16381,10 +16381,10 @@
         <v>46</v>
       </c>
       <c r="C67" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D67" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E67" s="15" t="s">
         <v>41</v>
@@ -16461,10 +16461,10 @@
         <v>48</v>
       </c>
       <c r="C68" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D68" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E68" s="15" t="s">
         <v>41</v>
@@ -16543,10 +16543,10 @@
         <v>48</v>
       </c>
       <c r="C69" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D69" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E69" s="15" t="s">
         <v>41</v>
@@ -16625,10 +16625,10 @@
         <v>48</v>
       </c>
       <c r="C70" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D70" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E70" s="15" t="s">
         <v>41</v>
@@ -16707,10 +16707,10 @@
         <v>48</v>
       </c>
       <c r="C71" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D71" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E71" s="15" t="s">
         <v>41</v>
@@ -16789,10 +16789,10 @@
         <v>48</v>
       </c>
       <c r="C72" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D72" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E72" s="15" t="s">
         <v>41</v>
@@ -16871,10 +16871,10 @@
         <v>48</v>
       </c>
       <c r="C73" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D73" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E73" s="15" t="s">
         <v>41</v>
@@ -16953,10 +16953,10 @@
         <v>46</v>
       </c>
       <c r="C74" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D74" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E74" s="15" t="s">
         <v>41</v>
@@ -17033,10 +17033,10 @@
         <v>48</v>
       </c>
       <c r="C75" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D75" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E75" s="15" t="s">
         <v>41</v>
@@ -17115,10 +17115,10 @@
         <v>48</v>
       </c>
       <c r="C76" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D76" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E76" s="15" t="s">
         <v>41</v>
@@ -17197,10 +17197,10 @@
         <v>46</v>
       </c>
       <c r="C77" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D77" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E77" s="15" t="s">
         <v>41</v>
@@ -17282,10 +17282,10 @@
         <v>48</v>
       </c>
       <c r="C78" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D78" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E78" s="15" t="s">
         <v>41</v>
@@ -17363,10 +17363,10 @@
         <v>48</v>
       </c>
       <c r="C79" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D79" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E79" s="15" t="s">
         <v>41</v>
@@ -17444,10 +17444,10 @@
         <v>48</v>
       </c>
       <c r="C80" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D80" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E80" s="15" t="s">
         <v>41</v>
@@ -17526,10 +17526,10 @@
         <v>48</v>
       </c>
       <c r="C81" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D81" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E81" s="15" t="s">
         <v>41</v>
@@ -17608,10 +17608,10 @@
         <v>48</v>
       </c>
       <c r="C82" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D82" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E82" s="15" t="s">
         <v>41</v>
@@ -17690,10 +17690,10 @@
         <v>48</v>
       </c>
       <c r="C83" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D83" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E83" s="15" t="s">
         <v>41</v>
@@ -17747,10 +17747,10 @@
         <v>48</v>
       </c>
       <c r="C84" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D84" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E84" s="15" t="s">
         <v>41</v>
@@ -17804,10 +17804,10 @@
         <v>48</v>
       </c>
       <c r="C85" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D85" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E85" s="15" t="s">
         <v>41</v>
@@ -17860,10 +17860,10 @@
         <v>48</v>
       </c>
       <c r="C86" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D86" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E86" s="15" t="s">
         <v>41</v>
@@ -17916,10 +17916,10 @@
         <v>48</v>
       </c>
       <c r="C87" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D87" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E87" s="15" t="s">
         <v>41</v>
@@ -17973,10 +17973,10 @@
         <v>48</v>
       </c>
       <c r="C88" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D88" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E88" s="15" t="s">
         <v>41</v>
@@ -18030,10 +18030,10 @@
         <v>48</v>
       </c>
       <c r="C89" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D89" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E89" s="15" t="s">
         <v>41</v>
@@ -18087,10 +18087,10 @@
         <v>48</v>
       </c>
       <c r="C90" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D90" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E90" s="15" t="s">
         <v>41</v>
@@ -18150,10 +18150,10 @@
         <v>48</v>
       </c>
       <c r="C91" s="18">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="D91" s="18">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="E91" s="15" t="s">
         <v>41</v>
